--- a/input/images/tables/DirectToDaVinciMap.xlsx
+++ b/input/images/tables/DirectToDaVinciMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-alerts/input/images/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1E4200-6C8F-5846-A747-8CD9B4C8B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F6FC4-CEC5-034C-98F4-12C5453ABA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58660" yWindow="500" windowWidth="41440" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58660" yWindow="500" windowWidth="41440" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingTableColumns" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{AC616A51-6809-4B46-8644-CDED75186EB9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="ADT Order" guid="{B595E6E6-A36F-4A04-AA84-2A8E181D3993}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{AC616A51-6809-4B46-8644-CDED75186EB9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2128,12 +2128,6 @@
     <t>TF  is an extension to the base ROL-3 providerRole value set in V2</t>
   </si>
   <si>
-    <t>S is an extension to the base PV!-2 patientClass  value set in V2</t>
-  </si>
-  <si>
-    <t>V is an extension to the base PV!-2 patientClass  value set in V2</t>
-  </si>
-  <si>
     <t>Column Header Name</t>
   </si>
   <si>
@@ -2225,6 +2219,12 @@
   </si>
   <si>
     <t>Code System URL for the code</t>
+  </si>
+  <si>
+    <t>S is an extension to the base PV1-2 patientClass  value set in V2</t>
+  </si>
+  <si>
+    <t>V is an extension to the base PV1-2 patientClass  value set in V2</t>
   </si>
 </sst>
 </file>
@@ -2588,29 +2588,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2626,6 +2607,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2855,99 +2855,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>672</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>660</v>
+      <c r="A2" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>661</v>
+      <c r="C3" s="41" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>662</v>
+      <c r="C4" s="41" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
-      <c r="B5" s="50" t="s">
-        <v>663</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>664</v>
+      <c r="B5" s="41" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
-        <v>665</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>666</v>
+      <c r="B6" s="41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>667</v>
+      <c r="C7" s="41" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>668</v>
+      <c r="C8" s="41" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>669</v>
+      <c r="C9" s="41" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
-      <c r="B10" s="50" t="s">
-        <v>680</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>670</v>
+      <c r="B10" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>671</v>
+      <c r="C11" s="41" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.15">
@@ -2982,19 +2982,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3945,11 +3945,11 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -4358,27 +4358,27 @@
       <c r="H31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
@@ -4610,10 +4610,10 @@
       <c r="D37" s="4">
         <v>4.2</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="35" t="s">
         <v>131</v>
       </c>
@@ -4651,10 +4651,10 @@
       <c r="D38" s="4">
         <v>4.3</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="35" t="s">
         <v>131</v>
       </c>
@@ -5085,10 +5085,10 @@
       <c r="E48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G48" s="41"/>
+      <c r="G48" s="51"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3" t="s">
         <v>161</v>
@@ -5182,11 +5182,11 @@
       <c r="H50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -5314,10 +5314,10 @@
       <c r="E53" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="G53" s="41"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3" t="s">
         <v>145</v>
@@ -5573,10 +5573,10 @@
       <c r="D59" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="F59" s="41"/>
+      <c r="F59" s="51"/>
       <c r="G59" s="3" t="s">
         <v>190</v>
       </c>
@@ -5616,10 +5616,10 @@
       <c r="D60" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="41"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="3" t="s">
         <v>194</v>
       </c>
@@ -5659,10 +5659,10 @@
       <c r="D61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="41"/>
+      <c r="F61" s="51"/>
       <c r="G61" s="3" t="s">
         <v>197</v>
       </c>
@@ -6367,10 +6367,10 @@
       <c r="D77" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="41"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="1" t="s">
         <v>250</v>
       </c>
@@ -6422,16 +6422,16 @@
       <c r="H78" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I78" s="44" t="s">
+      <c r="I78" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
@@ -6600,11 +6600,11 @@
       <c r="H82" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -6737,19 +6737,19 @@
       <c r="H85" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="44" t="s">
+      <c r="I85" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
@@ -6874,11 +6874,11 @@
       <c r="H88" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I88" s="43" t="s">
+      <c r="I88" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -6962,12 +6962,12 @@
       <c r="H90" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I90" s="40" t="s">
+      <c r="I90" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -7009,14 +7009,14 @@
       <c r="H91" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I91" s="44" t="s">
+      <c r="I91" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -33710,6 +33710,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I31:AA31"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="I91:N91"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="I50:K50"/>
@@ -33723,12 +33729,6 @@
     <mergeCell ref="I85:S85"/>
     <mergeCell ref="I88:K88"/>
     <mergeCell ref="I90:L90"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I31:AA31"/>
-    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" location="MessageHeader.event[x]:eventCoding" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -33761,7 +33761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4121CD73-8922-914C-8892-618B2983AE60}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -33773,115 +33773,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
-        <v>672</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>659</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>660</v>
+      <c r="A1" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>673</v>
-      </c>
-      <c r="B2" s="51" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>674</v>
+      <c r="C2" s="42" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="49"/>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>675</v>
+      <c r="C3" s="42" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>682</v>
+      <c r="C4" s="42" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>676</v>
+      <c r="C5" s="42" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>678</v>
-      </c>
-      <c r="B6" s="51" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>677</v>
+      <c r="C6" s="42" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="49"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>669</v>
+      <c r="C7" s="42" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="49"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>681</v>
+      <c r="C8" s="42" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>682</v>
+      <c r="C9" s="42" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>644</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>676</v>
+      <c r="C10" s="42" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="42" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -33900,9 +33900,9 @@
   </sheetPr>
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33927,10 +33927,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="57" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="41"/>
+      <c r="H1" s="51"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="3" t="s">
@@ -33957,63 +33957,63 @@
       <c r="AE1" s="12"/>
       <c r="AF1" s="12"/>
     </row>
-    <row r="2" spans="1:32" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:32" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="43" t="s">
         <v>635</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="45" t="s">
         <v>637</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="43" t="s">
         <v>638</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="45" t="s">
         <v>643</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="45" t="s">
         <v>642</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="46" t="s">
         <v>653</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
@@ -35931,7 +35931,7 @@
         <v>420</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
@@ -35986,7 +35986,7 @@
         <v>424</v>
       </c>
       <c r="L39" s="39" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
@@ -39501,17 +39501,17 @@
       <c r="F104" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G104" s="45" t="s">
+      <c r="G104" s="55" t="s">
         <v>615</v>
       </c>
-      <c r="H104" s="46"/>
+      <c r="H104" s="56"/>
       <c r="I104" s="37"/>
       <c r="J104" s="38"/>
       <c r="K104" s="15"/>
-      <c r="L104" s="45" t="s">
+      <c r="L104" s="55" t="s">
         <v>615</v>
       </c>
-      <c r="M104" s="46"/>
+      <c r="M104" s="56"/>
       <c r="N104" s="12"/>
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
